--- a/observations/orbit_plans/mtp081/nomad_mtp081_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp081/nomad_mtp081_plan_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp081\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D0EC3-A489-4FCA-B55C-6869CAB851C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD5CA81-C446-4480-A241-6BAED1B786CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="513">
   <si>
     <t>#orbitType</t>
   </si>
@@ -938,640 +938,640 @@
     <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=1; </t>
   </si>
   <si>
+    <t>2024 JUN 24 00:52:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueDayLimb; </t>
+  </si>
+  <si>
+    <t>2024 JUN 24 02:50:17</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 04:48:15</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 06:46:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=0; </t>
+  </si>
+  <si>
+    <t>2024 JUN 24 08:44:06</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 10:41:58</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 12:39:53</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 14:37:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=12.0hrs; &amp;Angle=0; </t>
+  </si>
+  <si>
+    <t>2024 JUN 24 16:35:48</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 18:33:45</t>
+  </si>
+  <si>
+    <t>2024 JUN 24 20:31:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=0; </t>
+  </si>
+  <si>
+    <t>2024 JUN 24 22:29:33</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 00:27:27</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 02:25:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=1; </t>
+  </si>
+  <si>
+    <t>2024 JUN 25 04:23:22</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 06:21:20</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 08:19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=2; </t>
+  </si>
+  <si>
+    <t>2024 JUN 25 10:17:08</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 12:15:01</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 14:12:58</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 16:10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>2024 JUN 25 18:08:53</t>
+  </si>
+  <si>
+    <t>2024 JUN 25 20:06:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=3; </t>
+  </si>
+  <si>
+    <t>2024 JUN 25 22:04:42</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 00:02:35</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 02:00:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=4; </t>
+  </si>
+  <si>
+    <t>2024 JUN 26 03:58:29</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 05:56:28</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 07:54:24</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 09:52:18</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 11:50:10</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 13:48:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=5; </t>
+  </si>
+  <si>
+    <t>2024 JUN 26 15:46:04</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 17:44:02</t>
+  </si>
+  <si>
+    <t>2024 JUN 26 19:41:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=6; </t>
+  </si>
+  <si>
+    <t>2024 JUN 26 21:39:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=6; </t>
+  </si>
+  <si>
+    <t>2024 JUN 26 23:37:46</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 01:35:41</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 03:33:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2024 JUN 27 05:31:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=7; </t>
+  </si>
+  <si>
+    <t>2024 JUN 27 07:29:35</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 09:27:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=7; </t>
+  </si>
+  <si>
+    <t>2024 JUN 27 11:25:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=8; </t>
+  </si>
+  <si>
+    <t>2024 JUN 27 13:23:16</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 15:21:13</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 17:19:11</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 19:17:08</t>
+  </si>
+  <si>
+    <t>2024 JUN 27 21:15:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=9; </t>
+  </si>
+  <si>
+    <t>2024 JUN 27 23:12:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2024 JUN 28 01:10:51</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 03:08:47</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 05:06:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2024 JUN 28 07:04:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=10; </t>
+  </si>
+  <si>
+    <t>2024 JUN 28 09:02:41</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 11:00:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=10; </t>
+  </si>
+  <si>
+    <t>2024 JUN 28 12:58:27</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 14:56:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=11; </t>
+  </si>
+  <si>
+    <t>2024 JUN 28 16:54:22</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 18:52:20</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 20:50:16</t>
+  </si>
+  <si>
+    <t>2024 JUN 28 22:48:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2024 JUN 29 00:46:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2024 JUN 29 02:43:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.1hrs; &amp;Angle=12; </t>
+  </si>
+  <si>
+    <t>2024 JUN 29 04:41:57</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 06:39:56</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 08:37:54</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 10:35:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=13; </t>
+  </si>
+  <si>
+    <t>2024 JUN 29 12:33:41</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 14:31:35</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 16:29:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=14; </t>
+  </si>
+  <si>
+    <t>2024 JUN 29 18:27:32</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 20:25:29</t>
+  </si>
+  <si>
+    <t>2024 JUN 29 22:23:25</t>
+  </si>
+  <si>
+    <t>2024 JUN 30 00:21:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=14; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 02:19:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 04:17:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=15; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 06:15:09</t>
+  </si>
+  <si>
+    <t>2024 JUN 30 08:13:08</t>
+  </si>
+  <si>
+    <t>2024 JUN 30 10:11:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=16; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 12:08:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=16; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 14:06:51</t>
+  </si>
+  <si>
+    <t>2024 JUN 30 16:04:48</t>
+  </si>
+  <si>
+    <t>2024 JUN 30 18:02:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 20:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 21:58:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=17; </t>
+  </si>
+  <si>
+    <t>2024 JUN 30 23:56:36</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 01:54:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=17; </t>
+  </si>
+  <si>
+    <t>2024 JUL 01 03:52:25</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 05:50:24</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 07:48:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=18; </t>
+  </si>
+  <si>
+    <t>2024 JUL 01 09:46:21</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 11:44:15</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 13:42:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=19; </t>
+  </si>
+  <si>
+    <t>2024 JUL 01 15:40:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=19; </t>
+  </si>
+  <si>
+    <t>2024 JUL 01 17:38:03</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 19:36:02</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 21:33:59</t>
+  </si>
+  <si>
+    <t>2024 JUL 01 23:31:55</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 01:29:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2024 JUL 02 03:27:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=20; </t>
+  </si>
+  <si>
+    <t>2024 JUL 02 05:25:42</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 07:23:42</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 09:21:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=21; </t>
+  </si>
+  <si>
+    <t>2024 JUL 02 11:19:36</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 13:17:30</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 15:15:24</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 17:13:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=22; </t>
+  </si>
+  <si>
+    <t>2024 JUL 02 19:11:21</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 21:09:19</t>
+  </si>
+  <si>
+    <t>2024 JUL 02 23:07:16</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 01:05:10</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 03:03:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=23; </t>
+  </si>
+  <si>
+    <t>2024 JUL 03 05:01:01</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 06:59:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=23; </t>
+  </si>
+  <si>
+    <t>2024 JUL 03 08:57:00</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 10:54:58</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 12:52:52</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 14:50:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=24; </t>
+  </si>
+  <si>
+    <t>2024 JUL 03 16:48:43</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 18:46:42</t>
+  </si>
+  <si>
+    <t>2024 JUL 03 20:44:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=24; </t>
+  </si>
+  <si>
+    <t>2024 JUL 03 22:42:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=25; </t>
+  </si>
+  <si>
+    <t>2024 JUL 04 00:40:34</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 02:38:29</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 04:36:25</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 06:34:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=26; </t>
+  </si>
+  <si>
+    <t>2024 JUL 04 08:32:23</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 10:30:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=26; </t>
+  </si>
+  <si>
+    <t>2024 JUL 04 12:28:18</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 14:26:11</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 16:24:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=27; </t>
+  </si>
+  <si>
+    <t>2024 JUL 04 18:22:05</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 20:20:05</t>
+  </si>
+  <si>
+    <t>2024 JUL 04 22:18:03</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 00:15:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=27; </t>
+  </si>
+  <si>
+    <t>2024 JUL 05 02:13:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=28; </t>
+  </si>
+  <si>
+    <t>2024 JUL 05 04:11:49</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 06:09:47</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 08:07:46</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 10:05:46</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 12:03:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=29; </t>
+  </si>
+  <si>
+    <t>2024 JUL 05 14:01:38</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 15:59:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=29; </t>
+  </si>
+  <si>
+    <t>2024 JUL 05 17:57:30</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 19:55:30</t>
+  </si>
+  <si>
+    <t>2024 JUL 05 21:53:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=30; </t>
+  </si>
+  <si>
+    <t>2024 JUL 05 23:51:27</t>
+  </si>
+  <si>
+    <t>2024 JUL 06 01:49:23</t>
+  </si>
+  <si>
+    <t>2024 JUL 06 03:47:17</t>
+  </si>
+  <si>
+    <t>2024 JUL 06 05:45:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2024 JUL 06 07:43:13</t>
+  </si>
+  <si>
+    <t>2024 JUL 06 09:41:14</t>
+  </si>
+  <si>
+    <t>2024 JUL 06 11:39:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=31; </t>
+  </si>
+  <si>
     <t>uvisLimb</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 00:52:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueDayLimb; </t>
-  </si>
-  <si>
-    <t>2024 JUN 24 02:50:17</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 04:48:15</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 06:46:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=0; </t>
-  </si>
-  <si>
-    <t>2024 JUN 24 08:44:06</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 10:41:58</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 12:39:53</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 14:37:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=12.0hrs; &amp;Angle=0; </t>
-  </si>
-  <si>
-    <t>2024 JUN 24 16:35:48</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 18:33:45</t>
-  </si>
-  <si>
-    <t>2024 JUN 24 20:31:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=0; </t>
-  </si>
-  <si>
-    <t>2024 JUN 24 22:29:33</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 00:27:27</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 02:25:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.9hrs; &amp;Angle=1; </t>
-  </si>
-  <si>
-    <t>2024 JUN 25 04:23:22</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 06:21:20</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 08:19:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=2; </t>
-  </si>
-  <si>
-    <t>2024 JUN 25 10:17:08</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 12:15:01</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 14:12:58</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 16:10:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=3; </t>
-  </si>
-  <si>
-    <t>2024 JUN 25 18:08:53</t>
-  </si>
-  <si>
-    <t>2024 JUN 25 20:06:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=3; </t>
-  </si>
-  <si>
-    <t>2024 JUN 25 22:04:42</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 00:02:35</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 02:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.7hrs; &amp;Angle=4; </t>
-  </si>
-  <si>
-    <t>2024 JUN 26 03:58:29</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 05:56:28</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 07:54:24</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 09:52:18</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 11:50:10</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 13:48:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=5; </t>
-  </si>
-  <si>
-    <t>2024 JUN 26 15:46:04</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 17:44:02</t>
-  </si>
-  <si>
-    <t>2024 JUN 26 19:41:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.6hrs; &amp;Angle=6; </t>
-  </si>
-  <si>
-    <t>2024 JUN 26 21:39:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=6; </t>
-  </si>
-  <si>
-    <t>2024 JUN 26 23:37:46</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 01:35:41</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 03:33:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2024 JUN 27 05:31:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.5hrs; &amp;Angle=7; </t>
-  </si>
-  <si>
-    <t>2024 JUN 27 07:29:35</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 09:27:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=7; </t>
-  </si>
-  <si>
-    <t>2024 JUN 27 11:25:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.4hrs; &amp;Angle=8; </t>
-  </si>
-  <si>
-    <t>2024 JUN 27 13:23:16</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 15:21:13</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 17:19:11</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 19:17:08</t>
-  </si>
-  <si>
-    <t>2024 JUN 27 21:15:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=9; </t>
-  </si>
-  <si>
-    <t>2024 JUN 27 23:12:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2024 JUN 28 01:10:51</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 03:08:47</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 05:06:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>2024 JUN 28 07:04:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.3hrs; &amp;Angle=10; </t>
-  </si>
-  <si>
-    <t>2024 JUN 28 09:02:41</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 11:00:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=10; </t>
-  </si>
-  <si>
-    <t>2024 JUN 28 12:58:27</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 14:56:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.2hrs; &amp;Angle=11; </t>
-  </si>
-  <si>
-    <t>2024 JUN 28 16:54:22</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 18:52:20</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 20:50:16</t>
-  </si>
-  <si>
-    <t>2024 JUN 28 22:48:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2024 JUN 29 00:46:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2024 JUN 29 02:43:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.1hrs; &amp;Angle=12; </t>
-  </si>
-  <si>
-    <t>2024 JUN 29 04:41:57</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 06:39:56</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 08:37:54</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 10:35:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=13; </t>
-  </si>
-  <si>
-    <t>2024 JUN 29 12:33:41</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 14:31:35</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 16:29:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=11.0hrs; &amp;Angle=14; </t>
-  </si>
-  <si>
-    <t>2024 JUN 29 18:27:32</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 20:25:29</t>
-  </si>
-  <si>
-    <t>2024 JUN 29 22:23:25</t>
-  </si>
-  <si>
-    <t>2024 JUN 30 00:21:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=14; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 02:19:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 04:17:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=15; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 06:15:09</t>
-  </si>
-  <si>
-    <t>2024 JUN 30 08:13:08</t>
-  </si>
-  <si>
-    <t>2024 JUN 30 10:11:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.9hrs; &amp;Angle=16; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 12:08:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=16; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 14:06:51</t>
-  </si>
-  <si>
-    <t>2024 JUN 30 16:04:48</t>
-  </si>
-  <si>
-    <t>2024 JUN 30 18:02:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; &amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 20:00:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 21:58:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.8hrs; &amp;Angle=17; </t>
-  </si>
-  <si>
-    <t>2024 JUN 30 23:56:36</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 01:54:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=17; </t>
-  </si>
-  <si>
-    <t>2024 JUL 01 03:52:25</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 05:50:24</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 07:48:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=18; </t>
-  </si>
-  <si>
-    <t>2024 JUL 01 09:46:21</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 11:44:15</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 13:42:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.7hrs; &amp;Angle=19; </t>
-  </si>
-  <si>
-    <t>2024 JUL 01 15:40:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=19; </t>
-  </si>
-  <si>
-    <t>2024 JUL 01 17:38:03</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 19:36:02</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 21:33:59</t>
-  </si>
-  <si>
-    <t>2024 JUL 01 23:31:55</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 01:29:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2024 JUL 02 03:27:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.6hrs; &amp;Angle=20; </t>
-  </si>
-  <si>
-    <t>2024 JUL 02 05:25:42</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 07:23:42</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 09:21:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.5hrs; &amp;Angle=21; </t>
-  </si>
-  <si>
-    <t>2024 JUL 02 11:19:36</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 13:17:30</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 15:15:24</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 17:13:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=22; </t>
-  </si>
-  <si>
-    <t>2024 JUL 02 19:11:21</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 21:09:19</t>
-  </si>
-  <si>
-    <t>2024 JUL 02 23:07:16</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 01:05:10</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 03:03:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.4hrs; &amp;Angle=23; </t>
-  </si>
-  <si>
-    <t>2024 JUL 03 05:01:01</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 06:59:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=23; </t>
-  </si>
-  <si>
-    <t>2024 JUL 03 08:57:00</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 10:54:58</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 12:52:52</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 14:50:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.3hrs; &amp;Angle=24; </t>
-  </si>
-  <si>
-    <t>2024 JUL 03 16:48:43</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 18:46:42</t>
-  </si>
-  <si>
-    <t>2024 JUL 03 20:44:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=24; </t>
-  </si>
-  <si>
-    <t>2024 JUL 03 22:42:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=25; </t>
-  </si>
-  <si>
-    <t>2024 JUL 04 00:40:34</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 02:38:29</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 04:36:25</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 06:34:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.2hrs; &amp;Angle=26; </t>
-  </si>
-  <si>
-    <t>2024 JUL 04 08:32:23</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 10:30:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=26; </t>
-  </si>
-  <si>
-    <t>2024 JUL 04 12:28:18</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 14:26:11</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 16:24:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.1hrs; &amp;Angle=27; </t>
-  </si>
-  <si>
-    <t>2024 JUL 04 18:22:05</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 20:20:05</t>
-  </si>
-  <si>
-    <t>2024 JUL 04 22:18:03</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 00:15:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=27; </t>
-  </si>
-  <si>
-    <t>2024 JUL 05 02:13:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=28; </t>
-  </si>
-  <si>
-    <t>2024 JUL 05 04:11:49</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 06:09:47</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 08:07:46</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 10:05:46</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 12:03:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=10.0hrs; &amp;Angle=29; </t>
-  </si>
-  <si>
-    <t>2024 JUL 05 14:01:38</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 15:59:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=29; </t>
-  </si>
-  <si>
-    <t>2024 JUL 05 17:57:30</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 19:55:30</t>
-  </si>
-  <si>
-    <t>2024 JUL 05 21:53:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.9hrs; &amp;Angle=30; </t>
-  </si>
-  <si>
-    <t>2024 JUL 05 23:51:27</t>
-  </si>
-  <si>
-    <t>2024 JUL 06 01:49:23</t>
-  </si>
-  <si>
-    <t>2024 JUL 06 03:47:17</t>
-  </si>
-  <si>
-    <t>2024 JUL 06 05:45:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2024 JUL 06 07:43:13</t>
-  </si>
-  <si>
-    <t>2024 JUL 06 09:41:14</t>
-  </si>
-  <si>
-    <t>2024 JUL 06 11:39:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=31; </t>
   </si>
 </sst>
 </file>
@@ -1920,13 +1920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1967,12 +1967,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -1981,7 +1978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1991,17 +1988,11 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -2016,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2030,7 +2021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2049,9 +2040,6 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
       <c r="L5" t="s">
         <v>21</v>
       </c>
@@ -2059,9 +2047,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -2070,7 +2061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2084,7 +2075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2093,9 +2084,6 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -2116,7 +2104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2135,12 +2123,6 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" t="s">
         <v>26</v>
       </c>
@@ -2148,12 +2130,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
       </c>
       <c r="L10" t="s">
         <v>28</v>
@@ -2162,7 +2141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2172,20 +2151,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
@@ -2194,12 +2164,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2208,12 +2175,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
       </c>
       <c r="L13" t="s">
         <v>33</v>
@@ -2222,7 +2186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2257,12 +2221,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
@@ -2271,7 +2232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2280,9 +2241,6 @@
       </c>
       <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -2293,9 +2251,6 @@
       <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
       <c r="L16" t="s">
         <v>39</v>
       </c>
@@ -2303,7 +2258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2325,9 +2280,6 @@
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" t="s">
         <v>40</v>
       </c>
@@ -2335,12 +2287,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
       </c>
       <c r="L18" t="s">
         <v>42</v>
@@ -2349,12 +2298,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
@@ -2363,7 +2309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2373,20 +2319,11 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
       </c>
       <c r="L20" t="s">
         <v>45</v>
@@ -2395,12 +2332,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
       </c>
       <c r="L21" t="s">
         <v>46</v>
@@ -2409,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2431,9 +2365,6 @@
       <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" t="s">
         <v>47</v>
       </c>
@@ -2441,12 +2372,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
       </c>
       <c r="L23" t="s">
         <v>48</v>
@@ -2455,13 +2383,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2481,16 +2406,10 @@
       </c>
       <c r="F25" t="s">
         <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
       <c r="L25" t="s">
         <v>51</v>
       </c>
@@ -2498,7 +2417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2507,9 +2426,6 @@
       </c>
       <c r="C26" t="s">
         <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -2520,9 +2436,6 @@
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
       <c r="L26" t="s">
         <v>52</v>
       </c>
@@ -2530,12 +2443,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
       </c>
       <c r="L27" t="s">
         <v>53</v>
@@ -2544,7 +2454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2563,12 +2473,6 @@
       <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
       <c r="L28" t="s">
         <v>55</v>
       </c>
@@ -2576,12 +2480,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
       </c>
       <c r="L29" t="s">
         <v>57</v>
@@ -2590,7 +2491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2600,20 +2501,11 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
       </c>
       <c r="L30" t="s">
         <v>58</v>
@@ -2622,7 +2514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2632,20 +2524,11 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
       </c>
       <c r="L31" t="s">
         <v>61</v>
@@ -2654,12 +2537,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
       </c>
       <c r="L32" t="s">
         <v>63</v>
@@ -2668,7 +2548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2678,17 +2558,11 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
@@ -2700,7 +2574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2717,7 +2591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2727,20 +2601,11 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
       </c>
       <c r="L35" t="s">
         <v>68</v>
@@ -2749,7 +2614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2759,20 +2624,11 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
       <c r="E36" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
       </c>
       <c r="L36" t="s">
         <v>70</v>
@@ -2781,12 +2637,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
       </c>
       <c r="L37" t="s">
         <v>72</v>
@@ -2795,7 +2648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2805,20 +2658,11 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
       <c r="E38" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
       </c>
       <c r="L38" t="s">
         <v>73</v>
@@ -2827,12 +2671,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
       </c>
       <c r="L39" t="s">
         <v>74</v>
@@ -2841,7 +2682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2851,17 +2692,11 @@
       <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
       <c r="E40" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
       </c>
       <c r="L40" t="s">
         <v>76</v>
@@ -2870,7 +2705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2881,7 +2716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2895,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2905,20 +2740,11 @@
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
       <c r="E43" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
       </c>
       <c r="L43" t="s">
         <v>79</v>
@@ -2927,7 +2753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2937,20 +2763,11 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
       <c r="E44" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
       </c>
       <c r="L44" t="s">
         <v>81</v>
@@ -2959,7 +2776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2976,7 +2793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2986,20 +2803,11 @@
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
       <c r="E46" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
       </c>
       <c r="L46" t="s">
         <v>84</v>
@@ -3008,12 +2816,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
       </c>
       <c r="L47" t="s">
         <v>86</v>
@@ -3022,7 +2827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3032,20 +2837,11 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
       <c r="E48" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
       </c>
       <c r="L48" t="s">
         <v>88</v>
@@ -3054,12 +2850,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
       </c>
       <c r="L49" t="s">
         <v>90</v>
@@ -3068,7 +2861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3078,20 +2871,11 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
       </c>
       <c r="L50" t="s">
         <v>92</v>
@@ -3100,7 +2884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3110,20 +2894,11 @@
       <c r="C51" t="s">
         <v>15</v>
       </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
       <c r="E51" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
       </c>
       <c r="L51" t="s">
         <v>93</v>
@@ -3132,12 +2907,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
       </c>
       <c r="L52" t="s">
         <v>95</v>
@@ -3146,7 +2918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3156,20 +2928,11 @@
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
       <c r="E53" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" t="s">
-        <v>8</v>
       </c>
       <c r="L53" t="s">
         <v>97</v>
@@ -3178,12 +2941,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
       </c>
       <c r="L54" t="s">
         <v>98</v>
@@ -3192,7 +2952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3202,20 +2962,11 @@
       <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
       <c r="E55" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
       </c>
       <c r="L55" t="s">
         <v>99</v>
@@ -3224,7 +2975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3234,20 +2985,11 @@
       <c r="C56" t="s">
         <v>15</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
       <c r="E56" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>8</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -3256,12 +2998,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
       </c>
       <c r="L57" t="s">
         <v>101</v>
@@ -3270,7 +3009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3280,20 +3019,11 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
       <c r="E58" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" t="s">
-        <v>8</v>
       </c>
       <c r="L58" t="s">
         <v>102</v>
@@ -3302,16 +3032,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" t="s">
         <v>103</v>
       </c>
@@ -3319,7 +3046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3329,20 +3056,11 @@
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
       <c r="E60" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" t="s">
-        <v>8</v>
       </c>
       <c r="L60" t="s">
         <v>104</v>
@@ -3351,7 +3069,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3361,20 +3079,11 @@
       <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
       <c r="E61" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
       </c>
       <c r="L61" t="s">
         <v>106</v>
@@ -3383,12 +3092,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>8</v>
       </c>
       <c r="L62" t="s">
         <v>107</v>
@@ -3397,7 +3103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3407,20 +3113,11 @@
       <c r="C63" t="s">
         <v>15</v>
       </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
       <c r="E63" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" t="s">
-        <v>8</v>
       </c>
       <c r="L63" t="s">
         <v>109</v>
@@ -3429,12 +3126,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>8</v>
       </c>
       <c r="L64" t="s">
         <v>111</v>
@@ -3443,12 +3137,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>8</v>
       </c>
       <c r="L65" t="s">
         <v>112</v>
@@ -3457,7 +3148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3467,20 +3158,11 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
       <c r="E66" t="s">
         <v>16</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" t="s">
-        <v>8</v>
       </c>
       <c r="L66" t="s">
         <v>114</v>
@@ -3489,12 +3171,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>8</v>
       </c>
       <c r="L67" t="s">
         <v>115</v>
@@ -3503,7 +3182,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3513,20 +3192,11 @@
       <c r="C68" t="s">
         <v>15</v>
       </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
       <c r="E68" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
       </c>
       <c r="L68" t="s">
         <v>116</v>
@@ -3535,7 +3205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3545,20 +3215,11 @@
       <c r="C69" t="s">
         <v>15</v>
       </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
       <c r="E69" t="s">
         <v>16</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" t="s">
-        <v>8</v>
       </c>
       <c r="L69" t="s">
         <v>118</v>
@@ -3567,12 +3228,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
       </c>
       <c r="L70" t="s">
         <v>120</v>
@@ -3581,7 +3239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3592,7 +3250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3603,7 +3261,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3613,20 +3271,11 @@
       <c r="C73" t="s">
         <v>15</v>
       </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" t="s">
-        <v>8</v>
       </c>
       <c r="L73" t="s">
         <v>124</v>
@@ -3635,12 +3284,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>8</v>
       </c>
       <c r="L74" t="s">
         <v>126</v>
@@ -3649,7 +3295,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3659,20 +3305,11 @@
       <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" t="s">
-        <v>3</v>
-      </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>8</v>
       </c>
       <c r="L75" t="s">
         <v>128</v>
@@ -3681,16 +3318,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>87</v>
       </c>
-      <c r="I76" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" t="s">
         <v>130</v>
       </c>
@@ -3698,7 +3332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3708,20 +3342,11 @@
       <c r="C77" t="s">
         <v>15</v>
       </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
       <c r="E77" t="s">
         <v>16</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>8</v>
       </c>
       <c r="L77" t="s">
         <v>132</v>
@@ -3730,12 +3355,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>8</v>
       </c>
       <c r="L78" t="s">
         <v>133</v>
@@ -3744,7 +3366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3754,17 +3376,11 @@
       <c r="C79" t="s">
         <v>15</v>
       </c>
-      <c r="D79" t="s">
-        <v>3</v>
-      </c>
       <c r="E79" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>6</v>
       </c>
       <c r="L79" t="s">
         <v>134</v>
@@ -3773,7 +3389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3784,12 +3400,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>8</v>
       </c>
       <c r="L81" t="s">
         <v>138</v>
@@ -3798,7 +3411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3808,20 +3421,11 @@
       <c r="C82" t="s">
         <v>15</v>
       </c>
-      <c r="D82" t="s">
-        <v>3</v>
-      </c>
       <c r="E82" t="s">
         <v>16</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" t="s">
-        <v>8</v>
       </c>
       <c r="L82" t="s">
         <v>139</v>
@@ -3830,12 +3434,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>8</v>
       </c>
       <c r="L83" t="s">
         <v>141</v>
@@ -3844,7 +3445,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>47</v>
       </c>
@@ -3858,7 +3459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3868,20 +3469,11 @@
       <c r="C85" t="s">
         <v>15</v>
       </c>
-      <c r="D85" t="s">
-        <v>3</v>
-      </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>6</v>
-      </c>
-      <c r="I85" t="s">
-        <v>8</v>
       </c>
       <c r="L85" t="s">
         <v>146</v>
@@ -3890,7 +3482,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3899,9 +3491,6 @@
       </c>
       <c r="C86" t="s">
         <v>15</v>
-      </c>
-      <c r="D86" t="s">
-        <v>3</v>
       </c>
       <c r="L86" t="s">
         <v>147</v>
@@ -3910,7 +3499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3921,12 +3510,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>8</v>
       </c>
       <c r="L88" t="s">
         <v>151</v>
@@ -3935,12 +3521,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>8</v>
       </c>
       <c r="L89" t="s">
         <v>153</v>
@@ -3949,7 +3532,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3959,20 +3542,11 @@
       <c r="C90" t="s">
         <v>15</v>
       </c>
-      <c r="D90" t="s">
-        <v>3</v>
-      </c>
       <c r="E90" t="s">
         <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I90" t="s">
-        <v>8</v>
       </c>
       <c r="L90" t="s">
         <v>154</v>
@@ -3981,7 +3555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>47</v>
       </c>
@@ -3995,12 +3569,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>8</v>
       </c>
       <c r="L92" t="s">
         <v>157</v>
@@ -4009,7 +3580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4019,20 +3590,11 @@
       <c r="C93" t="s">
         <v>15</v>
       </c>
-      <c r="D93" t="s">
-        <v>3</v>
-      </c>
       <c r="E93" t="s">
         <v>16</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" t="s">
-        <v>8</v>
       </c>
       <c r="L93" t="s">
         <v>159</v>
@@ -4041,7 +3603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4051,20 +3613,11 @@
       <c r="C94" t="s">
         <v>15</v>
       </c>
-      <c r="D94" t="s">
-        <v>3</v>
-      </c>
       <c r="E94" t="s">
         <v>16</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>6</v>
-      </c>
-      <c r="I94" t="s">
-        <v>8</v>
       </c>
       <c r="L94" t="s">
         <v>161</v>
@@ -4073,12 +3626,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>8</v>
       </c>
       <c r="L95" t="s">
         <v>162</v>
@@ -4087,7 +3637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4097,24 +3647,15 @@
       <c r="C96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" t="s">
-        <v>3</v>
-      </c>
       <c r="E96" t="s">
         <v>16</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>6</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
       </c>
-      <c r="I96" t="s">
-        <v>8</v>
-      </c>
       <c r="L96" t="s">
         <v>164</v>
       </c>
@@ -4122,12 +3663,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>8</v>
       </c>
       <c r="L97" t="s">
         <v>165</v>
@@ -4136,12 +3674,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>8</v>
       </c>
       <c r="L98" t="s">
         <v>166</v>
@@ -4150,7 +3685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4159,12 +3694,6 @@
       </c>
       <c r="F99" t="s">
         <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>6</v>
-      </c>
-      <c r="I99" t="s">
-        <v>8</v>
       </c>
       <c r="L99" t="s">
         <v>168</v>
@@ -4173,7 +3702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>47</v>
       </c>
@@ -4187,12 +3716,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
-      </c>
-      <c r="I101" t="s">
-        <v>8</v>
       </c>
       <c r="L101" t="s">
         <v>170</v>
@@ -4201,7 +3727,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4211,20 +3737,11 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
       <c r="E102" t="s">
         <v>16</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>8</v>
       </c>
       <c r="L102" t="s">
         <v>172</v>
@@ -4233,7 +3750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4243,20 +3760,11 @@
       <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D103" t="s">
-        <v>3</v>
-      </c>
       <c r="E103" t="s">
         <v>16</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>6</v>
-      </c>
-      <c r="I103" t="s">
-        <v>8</v>
       </c>
       <c r="L103" t="s">
         <v>173</v>
@@ -4265,12 +3773,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14</v>
-      </c>
-      <c r="I104" t="s">
-        <v>8</v>
       </c>
       <c r="L104" t="s">
         <v>174</v>
@@ -4279,7 +3784,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4289,20 +3794,11 @@
       <c r="C105" t="s">
         <v>15</v>
       </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
       <c r="E105" t="s">
         <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" t="s">
-        <v>8</v>
       </c>
       <c r="L105" t="s">
         <v>176</v>
@@ -4311,12 +3807,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>8</v>
       </c>
       <c r="L106" t="s">
         <v>178</v>
@@ -4325,12 +3818,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
       </c>
       <c r="L107" t="s">
         <v>179</v>
@@ -4339,7 +3829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4348,12 +3838,6 @@
       </c>
       <c r="C108" t="s">
         <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" t="s">
-        <v>8</v>
       </c>
       <c r="L108" t="s">
         <v>181</v>
@@ -4362,12 +3846,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>8</v>
       </c>
       <c r="L109" t="s">
         <v>183</v>
@@ -4376,7 +3857,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4385,12 +3866,6 @@
       </c>
       <c r="C110" t="s">
         <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" t="s">
-        <v>8</v>
       </c>
       <c r="L110" t="s">
         <v>185</v>
@@ -4399,7 +3874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4408,16 +3883,10 @@
       </c>
       <c r="F111" t="s">
         <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>6</v>
       </c>
       <c r="H111" t="s">
         <v>7</v>
       </c>
-      <c r="I111" t="s">
-        <v>8</v>
-      </c>
       <c r="L111" t="s">
         <v>187</v>
       </c>
@@ -4425,12 +3894,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>8</v>
       </c>
       <c r="L112" t="s">
         <v>189</v>
@@ -4439,12 +3905,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>8</v>
       </c>
       <c r="L113" t="s">
         <v>190</v>
@@ -4453,7 +3916,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4462,9 +3925,6 @@
       </c>
       <c r="F114" t="s">
         <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>6</v>
       </c>
       <c r="L114" t="s">
         <v>191</v>
@@ -4473,7 +3933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -4484,7 +3944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4495,7 +3955,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4506,7 +3966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4515,12 +3975,6 @@
       </c>
       <c r="F118" t="s">
         <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I118" t="s">
-        <v>8</v>
       </c>
       <c r="L118" t="s">
         <v>197</v>
@@ -4529,7 +3983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4538,12 +3992,6 @@
       </c>
       <c r="C119" t="s">
         <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>8</v>
       </c>
       <c r="L119" t="s">
         <v>198</v>
@@ -4552,12 +4000,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>8</v>
       </c>
       <c r="L120" t="s">
         <v>199</v>
@@ -4566,7 +4011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4575,16 +4020,10 @@
       </c>
       <c r="C121" t="s">
         <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
       </c>
       <c r="H121" t="s">
         <v>7</v>
       </c>
-      <c r="I121" t="s">
-        <v>8</v>
-      </c>
       <c r="L121" t="s">
         <v>201</v>
       </c>
@@ -4592,12 +4031,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
-      </c>
-      <c r="I122" t="s">
-        <v>8</v>
       </c>
       <c r="L122" t="s">
         <v>202</v>
@@ -4606,7 +4042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4615,12 +4051,6 @@
       </c>
       <c r="C123" t="s">
         <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-      <c r="I123" t="s">
-        <v>8</v>
       </c>
       <c r="L123" t="s">
         <v>203</v>
@@ -4629,7 +4059,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4638,12 +4068,6 @@
       </c>
       <c r="F124" t="s">
         <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I124" t="s">
-        <v>8</v>
       </c>
       <c r="L124" t="s">
         <v>205</v>
@@ -4652,12 +4076,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>8</v>
       </c>
       <c r="L125" t="s">
         <v>207</v>
@@ -4666,7 +4087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4675,12 +4096,6 @@
       </c>
       <c r="F126" t="s">
         <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" t="s">
-        <v>8</v>
       </c>
       <c r="L126" t="s">
         <v>208</v>
@@ -4689,12 +4104,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>8</v>
       </c>
       <c r="L127" t="s">
         <v>210</v>
@@ -4703,7 +4115,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4712,12 +4124,6 @@
       </c>
       <c r="F128" t="s">
         <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" t="s">
-        <v>8</v>
       </c>
       <c r="L128" t="s">
         <v>212</v>
@@ -4726,12 +4132,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>8</v>
       </c>
       <c r="L129" t="s">
         <v>214</v>
@@ -4740,7 +4143,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4749,12 +4152,6 @@
       </c>
       <c r="F130" t="s">
         <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
-      </c>
-      <c r="I130" t="s">
-        <v>8</v>
       </c>
       <c r="L130" t="s">
         <v>215</v>
@@ -4763,7 +4160,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4772,12 +4169,6 @@
       </c>
       <c r="C131" t="s">
         <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="I131" t="s">
-        <v>8</v>
       </c>
       <c r="L131" t="s">
         <v>216</v>
@@ -4786,12 +4177,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>8</v>
       </c>
       <c r="L132" t="s">
         <v>217</v>
@@ -4800,7 +4188,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4809,12 +4197,6 @@
       </c>
       <c r="C133" t="s">
         <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>3</v>
-      </c>
-      <c r="I133" t="s">
-        <v>8</v>
       </c>
       <c r="L133" t="s">
         <v>218</v>
@@ -4823,12 +4205,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>8</v>
       </c>
       <c r="L134" t="s">
         <v>220</v>
@@ -4837,7 +4216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4846,12 +4225,6 @@
       </c>
       <c r="C135" t="s">
         <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="I135" t="s">
-        <v>8</v>
       </c>
       <c r="L135" t="s">
         <v>221</v>
@@ -4860,12 +4233,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>8</v>
       </c>
       <c r="L136" t="s">
         <v>223</v>
@@ -4874,12 +4244,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>8</v>
       </c>
       <c r="L137" t="s">
         <v>224</v>
@@ -4888,7 +4255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4897,16 +4264,10 @@
       </c>
       <c r="C138" t="s">
         <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>60</v>
       </c>
-      <c r="I138" t="s">
-        <v>8</v>
-      </c>
       <c r="L138" t="s">
         <v>225</v>
       </c>
@@ -4914,7 +4275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4923,12 +4284,6 @@
       </c>
       <c r="F139" t="s">
         <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I139" t="s">
-        <v>8</v>
       </c>
       <c r="L139" t="s">
         <v>227</v>
@@ -4937,12 +4292,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>8</v>
       </c>
       <c r="L140" t="s">
         <v>229</v>
@@ -4951,7 +4303,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4960,12 +4312,6 @@
       </c>
       <c r="F141" t="s">
         <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I141" t="s">
-        <v>8</v>
       </c>
       <c r="L141" t="s">
         <v>231</v>
@@ -4974,12 +4320,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>8</v>
       </c>
       <c r="L142" t="s">
         <v>232</v>
@@ -4988,7 +4331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4997,12 +4340,6 @@
       </c>
       <c r="F143" t="s">
         <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" t="s">
-        <v>8</v>
       </c>
       <c r="L143" t="s">
         <v>233</v>
@@ -5011,7 +4348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5020,12 +4357,6 @@
       </c>
       <c r="C144" t="s">
         <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
-      <c r="I144" t="s">
-        <v>8</v>
       </c>
       <c r="L144" t="s">
         <v>234</v>
@@ -5034,7 +4365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>14</v>
       </c>
@@ -5045,7 +4376,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -5056,7 +4387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5065,12 +4396,6 @@
       </c>
       <c r="C147" t="s">
         <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>3</v>
-      </c>
-      <c r="I147" t="s">
-        <v>8</v>
       </c>
       <c r="L147" t="s">
         <v>239</v>
@@ -5079,12 +4404,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14</v>
-      </c>
-      <c r="I148" t="s">
-        <v>8</v>
       </c>
       <c r="L148" t="s">
         <v>240</v>
@@ -5093,16 +4415,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
       <c r="H149" t="s">
         <v>7</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
-      </c>
       <c r="L149" t="s">
         <v>241</v>
       </c>
@@ -5110,7 +4429,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5119,12 +4438,6 @@
       </c>
       <c r="C150" t="s">
         <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="I150" t="s">
-        <v>8</v>
       </c>
       <c r="L150" t="s">
         <v>242</v>
@@ -5133,7 +4446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5142,12 +4455,6 @@
       </c>
       <c r="F151" t="s">
         <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>6</v>
-      </c>
-      <c r="I151" t="s">
-        <v>8</v>
       </c>
       <c r="L151" t="s">
         <v>244</v>
@@ -5156,12 +4463,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>8</v>
       </c>
       <c r="L152" t="s">
         <v>246</v>
@@ -5170,7 +4474,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5179,12 +4483,6 @@
       </c>
       <c r="F153" t="s">
         <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" t="s">
-        <v>8</v>
       </c>
       <c r="L153" t="s">
         <v>247</v>
@@ -5193,12 +4491,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
-      </c>
-      <c r="I154" t="s">
-        <v>8</v>
       </c>
       <c r="L154" t="s">
         <v>248</v>
@@ -5207,7 +4502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5216,12 +4511,6 @@
       </c>
       <c r="F155" t="s">
         <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>6</v>
-      </c>
-      <c r="I155" t="s">
-        <v>8</v>
       </c>
       <c r="L155" t="s">
         <v>250</v>
@@ -5230,16 +4519,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>7</v>
       </c>
-      <c r="I156" t="s">
-        <v>8</v>
-      </c>
       <c r="L156" t="s">
         <v>251</v>
       </c>
@@ -5247,7 +4533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5256,12 +4542,6 @@
       </c>
       <c r="F157" t="s">
         <v>16</v>
-      </c>
-      <c r="G157" t="s">
-        <v>6</v>
-      </c>
-      <c r="I157" t="s">
-        <v>8</v>
       </c>
       <c r="L157" t="s">
         <v>252</v>
@@ -5270,7 +4550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5279,12 +4559,6 @@
       </c>
       <c r="C158" t="s">
         <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>3</v>
-      </c>
-      <c r="I158" t="s">
-        <v>8</v>
       </c>
       <c r="L158" t="s">
         <v>253</v>
@@ -5293,12 +4567,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
-      </c>
-      <c r="I159" t="s">
-        <v>8</v>
       </c>
       <c r="L159" t="s">
         <v>255</v>
@@ -5307,7 +4578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5316,12 +4587,6 @@
       </c>
       <c r="C160" t="s">
         <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>3</v>
-      </c>
-      <c r="I160" t="s">
-        <v>8</v>
       </c>
       <c r="L160" t="s">
         <v>256</v>
@@ -5330,12 +4595,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
-      </c>
-      <c r="I161" t="s">
-        <v>8</v>
       </c>
       <c r="L161" t="s">
         <v>258</v>
@@ -5344,7 +4606,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5353,12 +4615,6 @@
       </c>
       <c r="C162" t="s">
         <v>15</v>
-      </c>
-      <c r="D162" t="s">
-        <v>3</v>
-      </c>
-      <c r="I162" t="s">
-        <v>8</v>
       </c>
       <c r="L162" t="s">
         <v>259</v>
@@ -5367,12 +4623,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14</v>
-      </c>
-      <c r="I163" t="s">
-        <v>8</v>
       </c>
       <c r="L163" t="s">
         <v>260</v>
@@ -5381,7 +4634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5390,12 +4643,6 @@
       </c>
       <c r="C164" t="s">
         <v>15</v>
-      </c>
-      <c r="D164" t="s">
-        <v>3</v>
-      </c>
-      <c r="I164" t="s">
-        <v>8</v>
       </c>
       <c r="L164" t="s">
         <v>261</v>
@@ -5404,7 +4651,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5413,12 +4660,6 @@
       </c>
       <c r="F165" t="s">
         <v>16</v>
-      </c>
-      <c r="G165" t="s">
-        <v>6</v>
-      </c>
-      <c r="I165" t="s">
-        <v>8</v>
       </c>
       <c r="L165" t="s">
         <v>263</v>
@@ -5427,12 +4668,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14</v>
-      </c>
-      <c r="I166" t="s">
-        <v>8</v>
       </c>
       <c r="L166" t="s">
         <v>264</v>
@@ -5441,7 +4679,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5450,12 +4688,6 @@
       </c>
       <c r="F167" t="s">
         <v>16</v>
-      </c>
-      <c r="G167" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" t="s">
-        <v>8</v>
       </c>
       <c r="L167" t="s">
         <v>265</v>
@@ -5464,12 +4696,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>14</v>
-      </c>
-      <c r="I168" t="s">
-        <v>8</v>
       </c>
       <c r="L168" t="s">
         <v>267</v>
@@ -5478,7 +4707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5487,12 +4716,6 @@
       </c>
       <c r="F169" t="s">
         <v>16</v>
-      </c>
-      <c r="G169" t="s">
-        <v>6</v>
-      </c>
-      <c r="I169" t="s">
-        <v>8</v>
       </c>
       <c r="L169" t="s">
         <v>268</v>
@@ -5501,7 +4724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5510,12 +4733,6 @@
       </c>
       <c r="C170" t="s">
         <v>15</v>
-      </c>
-      <c r="D170" t="s">
-        <v>3</v>
-      </c>
-      <c r="I170" t="s">
-        <v>8</v>
       </c>
       <c r="L170" t="s">
         <v>269</v>
@@ -5524,16 +4741,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>7</v>
       </c>
-      <c r="I171" t="s">
-        <v>8</v>
-      </c>
       <c r="L171" t="s">
         <v>271</v>
       </c>
@@ -5541,7 +4755,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5552,7 +4766,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5563,12 +4777,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14</v>
-      </c>
-      <c r="I174" t="s">
-        <v>8</v>
       </c>
       <c r="L174" t="s">
         <v>277</v>
@@ -5577,7 +4788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5586,12 +4797,6 @@
       </c>
       <c r="C175" t="s">
         <v>15</v>
-      </c>
-      <c r="D175" t="s">
-        <v>3</v>
-      </c>
-      <c r="I175" t="s">
-        <v>8</v>
       </c>
       <c r="L175" t="s">
         <v>278</v>
@@ -5600,12 +4805,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14</v>
-      </c>
-      <c r="I176" t="s">
-        <v>8</v>
       </c>
       <c r="L176" t="s">
         <v>280</v>
@@ -5614,7 +4816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>47</v>
       </c>
@@ -5628,7 +4830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5637,12 +4839,6 @@
       </c>
       <c r="C178" t="s">
         <v>15</v>
-      </c>
-      <c r="D178" t="s">
-        <v>3</v>
-      </c>
-      <c r="I178" t="s">
-        <v>8</v>
       </c>
       <c r="L178" t="s">
         <v>282</v>
@@ -5651,7 +4847,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -5660,16 +4856,10 @@
       </c>
       <c r="F179" t="s">
         <v>16</v>
-      </c>
-      <c r="G179" t="s">
-        <v>6</v>
       </c>
       <c r="H179" t="s">
         <v>7</v>
       </c>
-      <c r="I179" t="s">
-        <v>8</v>
-      </c>
       <c r="L179" t="s">
         <v>284</v>
       </c>
@@ -5677,12 +4867,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14</v>
-      </c>
-      <c r="I180" t="s">
-        <v>8</v>
       </c>
       <c r="L180" t="s">
         <v>285</v>
@@ -5691,7 +4878,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5700,16 +4887,10 @@
       </c>
       <c r="F181" t="s">
         <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>6</v>
       </c>
       <c r="H181" t="s">
         <v>60</v>
       </c>
-      <c r="I181" t="s">
-        <v>8</v>
-      </c>
       <c r="L181" t="s">
         <v>287</v>
       </c>
@@ -5717,12 +4898,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
-      </c>
-      <c r="I182" t="s">
-        <v>8</v>
       </c>
       <c r="L182" t="s">
         <v>289</v>
@@ -5731,7 +4909,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5740,12 +4918,6 @@
       </c>
       <c r="F183" t="s">
         <v>16</v>
-      </c>
-      <c r="G183" t="s">
-        <v>6</v>
-      </c>
-      <c r="I183" t="s">
-        <v>8</v>
       </c>
       <c r="L183" t="s">
         <v>291</v>
@@ -5754,12 +4926,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14</v>
-      </c>
-      <c r="I184" t="s">
-        <v>8</v>
       </c>
       <c r="L184" t="s">
         <v>292</v>
@@ -5768,7 +4937,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -5777,12 +4946,6 @@
       </c>
       <c r="F185" t="s">
         <v>16</v>
-      </c>
-      <c r="G185" t="s">
-        <v>6</v>
-      </c>
-      <c r="I185" t="s">
-        <v>8</v>
       </c>
       <c r="L185" t="s">
         <v>294</v>
@@ -5791,12 +4954,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>14</v>
-      </c>
-      <c r="I186" t="s">
-        <v>8</v>
       </c>
       <c r="L186" t="s">
         <v>295</v>
@@ -5805,7 +4965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5814,12 +4974,6 @@
       </c>
       <c r="C187" t="s">
         <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="I187" t="s">
-        <v>8</v>
       </c>
       <c r="L187" t="s">
         <v>296</v>
@@ -5828,12 +4982,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
-      </c>
-      <c r="I188" t="s">
-        <v>8</v>
       </c>
       <c r="L188" t="s">
         <v>297</v>
@@ -5842,7 +4993,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5851,12 +5002,6 @@
       </c>
       <c r="C189" t="s">
         <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>3</v>
-      </c>
-      <c r="I189" t="s">
-        <v>8</v>
       </c>
       <c r="L189" t="s">
         <v>299</v>
@@ -5865,52 +5010,46 @@
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>28</v>
       </c>
       <c r="I190" t="s">
+        <v>512</v>
+      </c>
+      <c r="L190" t="s">
         <v>301</v>
       </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>302</v>
       </c>
-      <c r="M190" t="s">
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="L191" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>14</v>
-      </c>
-      <c r="I191" t="s">
-        <v>8</v>
-      </c>
-      <c r="L191" t="s">
-        <v>304</v>
       </c>
       <c r="M191" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>60</v>
       </c>
-      <c r="I192" t="s">
-        <v>8</v>
-      </c>
       <c r="L192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M192" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5920,34 +5059,25 @@
       <c r="C193" t="s">
         <v>15</v>
       </c>
-      <c r="D193" t="s">
-        <v>3</v>
-      </c>
-      <c r="I193" t="s">
-        <v>8</v>
-      </c>
       <c r="L193" t="s">
+        <v>305</v>
+      </c>
+      <c r="M193" t="s">
         <v>306</v>
       </c>
-      <c r="M193" t="s">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>14</v>
+      </c>
+      <c r="L194" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>14</v>
-      </c>
-      <c r="I194" t="s">
-        <v>8</v>
-      </c>
-      <c r="L194" t="s">
-        <v>308</v>
       </c>
       <c r="M194" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5957,20 +5087,14 @@
       <c r="C195" t="s">
         <v>15</v>
       </c>
-      <c r="D195" t="s">
-        <v>3</v>
-      </c>
-      <c r="I195" t="s">
-        <v>8</v>
-      </c>
       <c r="L195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M195" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>47</v>
       </c>
@@ -5978,13 +5102,13 @@
         <v>143</v>
       </c>
       <c r="L196" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M196" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5994,37 +5118,28 @@
       <c r="F197" t="s">
         <v>16</v>
       </c>
-      <c r="G197" t="s">
-        <v>6</v>
-      </c>
-      <c r="I197" t="s">
-        <v>8</v>
-      </c>
       <c r="L197" t="s">
+        <v>310</v>
+      </c>
+      <c r="M197" t="s">
         <v>311</v>
       </c>
-      <c r="M197" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
       <c r="H198" t="s">
         <v>7</v>
       </c>
-      <c r="I198" t="s">
-        <v>8</v>
-      </c>
       <c r="L198" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M198" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6034,57 +5149,42 @@
       <c r="F199" t="s">
         <v>16</v>
       </c>
-      <c r="G199" t="s">
-        <v>6</v>
-      </c>
-      <c r="I199" t="s">
-        <v>8</v>
-      </c>
       <c r="L199" t="s">
+        <v>313</v>
+      </c>
+      <c r="M199" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="L200" t="s">
         <v>314</v>
       </c>
-      <c r="M199" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>14</v>
-      </c>
-      <c r="I200" t="s">
-        <v>8</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
         <v>315</v>
       </c>
-      <c r="M200" t="s">
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="L201" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="E201" t="s">
-        <v>16</v>
-      </c>
-      <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s">
-        <v>6</v>
-      </c>
-      <c r="I201" t="s">
-        <v>8</v>
-      </c>
-      <c r="L201" t="s">
-        <v>317</v>
-      </c>
       <c r="M201" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>47</v>
       </c>
@@ -6092,13 +5192,13 @@
         <v>143</v>
       </c>
       <c r="L202" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M202" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6108,288 +5208,219 @@
       <c r="C203" t="s">
         <v>15</v>
       </c>
-      <c r="D203" t="s">
-        <v>3</v>
-      </c>
-      <c r="I203" t="s">
-        <v>8</v>
-      </c>
       <c r="L203" t="s">
+        <v>318</v>
+      </c>
+      <c r="M203" t="s">
         <v>319</v>
       </c>
-      <c r="M203" t="s">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="L204" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>14</v>
-      </c>
-      <c r="I204" t="s">
-        <v>8</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="L205" t="s">
         <v>321</v>
       </c>
-      <c r="M204" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>15</v>
-      </c>
-      <c r="C205" t="s">
-        <v>15</v>
-      </c>
-      <c r="D205" t="s">
-        <v>3</v>
-      </c>
-      <c r="I205" t="s">
-        <v>8</v>
-      </c>
-      <c r="L205" t="s">
-        <v>322</v>
-      </c>
       <c r="M205" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>7</v>
       </c>
-      <c r="I206" t="s">
-        <v>8</v>
-      </c>
       <c r="L206" t="s">
+        <v>322</v>
+      </c>
+      <c r="M206" t="s">
         <v>323</v>
       </c>
-      <c r="M206" t="s">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="L207" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" t="s">
-        <v>15</v>
-      </c>
-      <c r="C207" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" t="s">
-        <v>3</v>
-      </c>
-      <c r="I207" t="s">
-        <v>8</v>
-      </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" t="s">
+        <v>16</v>
+      </c>
+      <c r="L208" t="s">
         <v>325</v>
       </c>
-      <c r="M207" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="E208" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s">
-        <v>6</v>
-      </c>
-      <c r="I208" t="s">
-        <v>8</v>
-      </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="L209" t="s">
         <v>326</v>
       </c>
-      <c r="M208" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>14</v>
-      </c>
-      <c r="I209" t="s">
-        <v>8</v>
-      </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" t="s">
+        <v>16</v>
+      </c>
+      <c r="L210" t="s">
         <v>327</v>
       </c>
-      <c r="M209" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="E210" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s">
-        <v>6</v>
-      </c>
-      <c r="I210" t="s">
-        <v>8</v>
-      </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
         <v>328</v>
       </c>
-      <c r="M210" t="s">
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>14</v>
+      </c>
+      <c r="L211" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>14</v>
-      </c>
-      <c r="I211" t="s">
-        <v>8</v>
-      </c>
-      <c r="L211" t="s">
-        <v>330</v>
-      </c>
       <c r="M211" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
       </c>
-      <c r="I212" t="s">
-        <v>8</v>
-      </c>
       <c r="L212" t="s">
+        <v>330</v>
+      </c>
+      <c r="M212" t="s">
         <v>331</v>
       </c>
-      <c r="M212" t="s">
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="L213" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="E213" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s">
-        <v>6</v>
-      </c>
-      <c r="I213" t="s">
-        <v>8</v>
-      </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="L214" t="s">
         <v>333</v>
       </c>
-      <c r="M213" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>14</v>
-      </c>
-      <c r="I214" t="s">
-        <v>8</v>
-      </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="L215" t="s">
         <v>334</v>
       </c>
-      <c r="M214" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>16</v>
-      </c>
-      <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" t="s">
-        <v>6</v>
-      </c>
-      <c r="I215" t="s">
-        <v>8</v>
-      </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>335</v>
       </c>
-      <c r="M215" t="s">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="L216" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
-        <v>15</v>
-      </c>
-      <c r="C216" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="I216" t="s">
-        <v>8</v>
-      </c>
-      <c r="L216" t="s">
-        <v>337</v>
-      </c>
       <c r="M216" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
       <c r="H217" t="s">
         <v>7</v>
       </c>
-      <c r="I217" t="s">
-        <v>8</v>
-      </c>
       <c r="L217" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M217" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6399,34 +5430,25 @@
       <c r="C218" t="s">
         <v>15</v>
       </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-      <c r="I218" t="s">
-        <v>8</v>
-      </c>
       <c r="L218" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M218" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
-      <c r="I219" t="s">
-        <v>8</v>
-      </c>
       <c r="L219" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M219" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6435,61 +5457,46 @@
       </c>
       <c r="C220" t="s">
         <v>15</v>
-      </c>
-      <c r="D220" t="s">
-        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>7</v>
       </c>
-      <c r="I220" t="s">
-        <v>8</v>
-      </c>
       <c r="L220" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M220" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
-      <c r="I221" t="s">
-        <v>8</v>
-      </c>
       <c r="L221" t="s">
+        <v>341</v>
+      </c>
+      <c r="M221" t="s">
         <v>342</v>
       </c>
-      <c r="M221" t="s">
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="L222" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" t="s">
-        <v>15</v>
-      </c>
-      <c r="C222" t="s">
-        <v>15</v>
-      </c>
-      <c r="D222" t="s">
-        <v>3</v>
-      </c>
-      <c r="I222" t="s">
-        <v>8</v>
-      </c>
-      <c r="L222" t="s">
-        <v>344</v>
       </c>
       <c r="M222" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6499,116 +5506,92 @@
       <c r="F223" t="s">
         <v>16</v>
       </c>
-      <c r="G223" t="s">
-        <v>6</v>
-      </c>
-      <c r="I223" t="s">
-        <v>8</v>
-      </c>
       <c r="L223" t="s">
+        <v>344</v>
+      </c>
+      <c r="M223" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>14</v>
+      </c>
+      <c r="L224" t="s">
         <v>345</v>
       </c>
-      <c r="M223" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>14</v>
-      </c>
-      <c r="I224" t="s">
-        <v>8</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>346</v>
       </c>
-      <c r="M224" t="s">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>14</v>
+      </c>
+      <c r="L225" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>14</v>
-      </c>
-      <c r="I225" t="s">
-        <v>8</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>348</v>
       </c>
-      <c r="M225" t="s">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" t="s">
+        <v>16</v>
+      </c>
+      <c r="L226" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="E226" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G226" t="s">
-        <v>6</v>
-      </c>
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>14</v>
+      </c>
+      <c r="L227" t="s">
         <v>350</v>
       </c>
-      <c r="M226" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>14</v>
-      </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>14</v>
+      </c>
+      <c r="L228" t="s">
         <v>351</v>
       </c>
-      <c r="M227" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>14</v>
-      </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>352</v>
       </c>
-      <c r="M228" t="s">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" t="s">
+        <v>16</v>
+      </c>
+      <c r="L229" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="E229" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" t="s">
-        <v>16</v>
-      </c>
-      <c r="G229" t="s">
-        <v>6</v>
-      </c>
-      <c r="I229" t="s">
-        <v>8</v>
-      </c>
-      <c r="L229" t="s">
+      <c r="M229" t="s">
         <v>354</v>
       </c>
-      <c r="M229" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6617,186 +5600,141 @@
       </c>
       <c r="C230" t="s">
         <v>15</v>
-      </c>
-      <c r="D230" t="s">
-        <v>3</v>
       </c>
       <c r="H230" t="s">
         <v>7</v>
       </c>
-      <c r="I230" t="s">
-        <v>8</v>
-      </c>
       <c r="L230" t="s">
+        <v>355</v>
+      </c>
+      <c r="M230" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="L231" t="s">
         <v>356</v>
       </c>
-      <c r="M230" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>14</v>
-      </c>
-      <c r="I231" t="s">
-        <v>8</v>
-      </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>357</v>
       </c>
-      <c r="M231" t="s">
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="L232" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232" t="s">
-        <v>15</v>
-      </c>
-      <c r="C232" t="s">
-        <v>15</v>
-      </c>
-      <c r="D232" t="s">
-        <v>3</v>
-      </c>
-      <c r="I232" t="s">
-        <v>8</v>
-      </c>
-      <c r="L232" t="s">
+      <c r="M232" t="s">
         <v>359</v>
       </c>
-      <c r="M232" t="s">
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>14</v>
+      </c>
+      <c r="L233" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>14</v>
-      </c>
-      <c r="I233" t="s">
-        <v>8</v>
-      </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="L234" t="s">
         <v>361</v>
       </c>
-      <c r="M233" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234" t="s">
-        <v>15</v>
-      </c>
-      <c r="C234" t="s">
-        <v>15</v>
-      </c>
-      <c r="D234" t="s">
-        <v>3</v>
-      </c>
-      <c r="I234" t="s">
-        <v>8</v>
-      </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" t="s">
+        <v>16</v>
+      </c>
+      <c r="L235" t="s">
         <v>362</v>
       </c>
-      <c r="M234" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="E235" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s">
-        <v>6</v>
-      </c>
-      <c r="I235" t="s">
-        <v>8</v>
-      </c>
-      <c r="L235" t="s">
+      <c r="M235" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>14</v>
+      </c>
+      <c r="L236" t="s">
         <v>363</v>
       </c>
-      <c r="M235" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>14</v>
-      </c>
-      <c r="I236" t="s">
-        <v>8</v>
-      </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="L237" t="s">
         <v>364</v>
       </c>
-      <c r="M236" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>14</v>
-      </c>
-      <c r="I237" t="s">
-        <v>8</v>
-      </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
         <v>365</v>
       </c>
-      <c r="M237" t="s">
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" t="s">
+        <v>16</v>
+      </c>
+      <c r="L238" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="E238" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" t="s">
-        <v>6</v>
-      </c>
-      <c r="I238" t="s">
-        <v>8</v>
-      </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>367</v>
       </c>
-      <c r="M238" t="s">
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>14</v>
+      </c>
+      <c r="L239" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>14</v>
-      </c>
-      <c r="I239" t="s">
-        <v>8</v>
-      </c>
-      <c r="L239" t="s">
-        <v>369</v>
-      </c>
       <c r="M239" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -6805,186 +5743,141 @@
       </c>
       <c r="F240" t="s">
         <v>16</v>
-      </c>
-      <c r="G240" t="s">
-        <v>6</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
       </c>
-      <c r="I240" t="s">
-        <v>8</v>
-      </c>
       <c r="L240" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M240" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
-      <c r="I241" t="s">
-        <v>8</v>
-      </c>
       <c r="L241" t="s">
+        <v>370</v>
+      </c>
+      <c r="M241" t="s">
         <v>371</v>
       </c>
-      <c r="M241" t="s">
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242" t="s">
+        <v>16</v>
+      </c>
+      <c r="L242" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="E242" t="s">
-        <v>16</v>
-      </c>
-      <c r="F242" t="s">
-        <v>16</v>
-      </c>
-      <c r="G242" t="s">
-        <v>6</v>
-      </c>
-      <c r="I242" t="s">
-        <v>8</v>
-      </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
         <v>373</v>
       </c>
-      <c r="M242" t="s">
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>15</v>
+      </c>
+      <c r="L243" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243" t="s">
-        <v>15</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
-        <v>3</v>
-      </c>
-      <c r="I243" t="s">
-        <v>8</v>
-      </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>14</v>
+      </c>
+      <c r="L244" t="s">
         <v>375</v>
       </c>
-      <c r="M243" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>14</v>
-      </c>
-      <c r="I244" t="s">
-        <v>8</v>
-      </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>376</v>
       </c>
-      <c r="M244" t="s">
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>15</v>
+      </c>
+      <c r="L245" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245" t="s">
-        <v>15</v>
-      </c>
-      <c r="C245" t="s">
-        <v>15</v>
-      </c>
-      <c r="D245" t="s">
-        <v>3</v>
-      </c>
-      <c r="I245" t="s">
-        <v>8</v>
-      </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>14</v>
+      </c>
+      <c r="L246" t="s">
         <v>378</v>
       </c>
-      <c r="M245" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>14</v>
-      </c>
-      <c r="I246" t="s">
-        <v>8</v>
-      </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>379</v>
       </c>
-      <c r="M246" t="s">
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
+      </c>
+      <c r="L247" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
-        <v>15</v>
-      </c>
-      <c r="C247" t="s">
-        <v>15</v>
-      </c>
-      <c r="D247" t="s">
-        <v>3</v>
-      </c>
-      <c r="I247" t="s">
-        <v>8</v>
-      </c>
-      <c r="L247" t="s">
-        <v>381</v>
       </c>
       <c r="M247" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
-      <c r="I248" t="s">
-        <v>8</v>
-      </c>
       <c r="L248" t="s">
+        <v>381</v>
+      </c>
+      <c r="M248" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>14</v>
+      </c>
+      <c r="L249" t="s">
         <v>382</v>
       </c>
-      <c r="M248" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>14</v>
-      </c>
-      <c r="I249" t="s">
-        <v>8</v>
-      </c>
-      <c r="L249" t="s">
-        <v>383</v>
-      </c>
       <c r="M249" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -6993,121 +5886,91 @@
       </c>
       <c r="C250" t="s">
         <v>15</v>
-      </c>
-      <c r="D250" t="s">
-        <v>3</v>
       </c>
       <c r="H250" t="s">
         <v>87</v>
       </c>
-      <c r="I250" t="s">
-        <v>8</v>
-      </c>
       <c r="L250" t="s">
+        <v>383</v>
+      </c>
+      <c r="M250" t="s">
         <v>384</v>
       </c>
-      <c r="M250" t="s">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" t="s">
+        <v>16</v>
+      </c>
+      <c r="L251" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="E251" t="s">
-        <v>16</v>
-      </c>
-      <c r="F251" t="s">
-        <v>16</v>
-      </c>
-      <c r="G251" t="s">
-        <v>6</v>
-      </c>
-      <c r="I251" t="s">
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>386</v>
       </c>
-      <c r="M251" t="s">
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>14</v>
+      </c>
+      <c r="L252" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>14</v>
-      </c>
-      <c r="I252" t="s">
-        <v>8</v>
-      </c>
-      <c r="L252" t="s">
+      <c r="M252" t="s">
         <v>388</v>
       </c>
-      <c r="M252" t="s">
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" t="s">
+        <v>16</v>
+      </c>
+      <c r="L253" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="E253" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" t="s">
-        <v>16</v>
-      </c>
-      <c r="G253" t="s">
-        <v>6</v>
-      </c>
-      <c r="I253" t="s">
-        <v>8</v>
-      </c>
-      <c r="L253" t="s">
+      <c r="M253" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>14</v>
+      </c>
+      <c r="L254" t="s">
         <v>390</v>
       </c>
-      <c r="M253" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>14</v>
-      </c>
-      <c r="I254" t="s">
-        <v>8</v>
-      </c>
-      <c r="L254" t="s">
+      <c r="M254" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" t="s">
+        <v>16</v>
+      </c>
+      <c r="L255" t="s">
         <v>391</v>
-      </c>
-      <c r="M254" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="E255" t="s">
-        <v>16</v>
-      </c>
-      <c r="F255" t="s">
-        <v>16</v>
-      </c>
-      <c r="G255" t="s">
-        <v>6</v>
-      </c>
-      <c r="I255" t="s">
-        <v>8</v>
-      </c>
-      <c r="L255" t="s">
-        <v>392</v>
       </c>
       <c r="M255" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -7117,169 +5980,136 @@
       <c r="C256" t="s">
         <v>15</v>
       </c>
-      <c r="D256" t="s">
-        <v>3</v>
-      </c>
-      <c r="I256" t="s">
-        <v>8</v>
-      </c>
       <c r="L256" t="s">
+        <v>392</v>
+      </c>
+      <c r="M256" t="s">
         <v>393</v>
       </c>
-      <c r="M256" t="s">
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>14</v>
+      </c>
+      <c r="L257" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>14</v>
-      </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>14</v>
+      </c>
+      <c r="L258" t="s">
         <v>395</v>
-      </c>
-      <c r="M257" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>14</v>
-      </c>
-      <c r="L258" t="s">
-        <v>396</v>
       </c>
       <c r="M258" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
-      <c r="I259" t="s">
-        <v>8</v>
-      </c>
       <c r="L259" t="s">
+        <v>396</v>
+      </c>
+      <c r="M259" t="s">
         <v>397</v>
       </c>
-      <c r="M259" t="s">
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="L260" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>14</v>
-      </c>
-      <c r="I260" t="s">
-        <v>8</v>
-      </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>14</v>
+      </c>
+      <c r="L261" t="s">
         <v>399</v>
       </c>
-      <c r="M260" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>14</v>
-      </c>
-      <c r="I261" t="s">
-        <v>8</v>
-      </c>
-      <c r="L261" t="s">
+      <c r="M261" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="L262" t="s">
         <v>400</v>
       </c>
-      <c r="M261" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
-        <v>15</v>
-      </c>
-      <c r="C262" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" t="s">
-        <v>3</v>
-      </c>
-      <c r="I262" t="s">
-        <v>8</v>
-      </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>14</v>
+      </c>
+      <c r="L263" t="s">
         <v>401</v>
       </c>
-      <c r="M262" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>14</v>
-      </c>
-      <c r="I263" t="s">
-        <v>8</v>
-      </c>
-      <c r="L263" t="s">
+      <c r="M263" t="s">
         <v>402</v>
       </c>
-      <c r="M263" t="s">
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>14</v>
+      </c>
+      <c r="L264" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>14</v>
-      </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>404</v>
       </c>
-      <c r="M264" t="s">
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>14</v>
+      </c>
+      <c r="L265" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>14</v>
-      </c>
-      <c r="I265" t="s">
-        <v>8</v>
-      </c>
-      <c r="L265" t="s">
+      <c r="M265" t="s">
         <v>406</v>
       </c>
-      <c r="M265" t="s">
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="L266" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266" t="s">
-        <v>15</v>
-      </c>
-      <c r="C266" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" t="s">
-        <v>3</v>
-      </c>
-      <c r="I266" t="s">
-        <v>8</v>
-      </c>
-      <c r="L266" t="s">
-        <v>408</v>
-      </c>
       <c r="M266" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7288,83 +6118,68 @@
       </c>
       <c r="F267" t="s">
         <v>16</v>
-      </c>
-      <c r="G267" t="s">
-        <v>6</v>
       </c>
       <c r="H267" t="s">
         <v>7</v>
       </c>
-      <c r="I267" t="s">
-        <v>8</v>
-      </c>
       <c r="L267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M267" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>14</v>
       </c>
-      <c r="I268" t="s">
-        <v>8</v>
-      </c>
       <c r="L268" t="s">
+        <v>409</v>
+      </c>
+      <c r="M268" t="s">
         <v>410</v>
       </c>
-      <c r="M268" t="s">
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269" t="s">
+        <v>16</v>
+      </c>
+      <c r="L269" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>16</v>
-      </c>
-      <c r="F269" t="s">
-        <v>16</v>
-      </c>
-      <c r="G269" t="s">
-        <v>6</v>
-      </c>
-      <c r="I269" t="s">
-        <v>8</v>
-      </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>412</v>
       </c>
-      <c r="M269" t="s">
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>14</v>
+      </c>
+      <c r="L270" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>14</v>
-      </c>
-      <c r="L270" t="s">
-        <v>414</v>
       </c>
       <c r="M270" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14</v>
       </c>
       <c r="L271" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M271" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7374,122 +6189,92 @@
       <c r="F272" t="s">
         <v>16</v>
       </c>
-      <c r="G272" t="s">
-        <v>6</v>
-      </c>
-      <c r="I272" t="s">
-        <v>8</v>
-      </c>
       <c r="L272" t="s">
+        <v>415</v>
+      </c>
+      <c r="M272" t="s">
         <v>416</v>
       </c>
-      <c r="M272" t="s">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>14</v>
+      </c>
+      <c r="L273" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>14</v>
-      </c>
-      <c r="I273" t="s">
-        <v>8</v>
-      </c>
-      <c r="L273" t="s">
+      <c r="M273" t="s">
         <v>418</v>
       </c>
-      <c r="M273" t="s">
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>14</v>
+      </c>
+      <c r="L274" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>14</v>
-      </c>
-      <c r="I274" t="s">
-        <v>8</v>
-      </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>420</v>
       </c>
-      <c r="M274" t="s">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>16</v>
+      </c>
+      <c r="F275" t="s">
+        <v>16</v>
+      </c>
+      <c r="L275" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="E275" t="s">
-        <v>16</v>
-      </c>
-      <c r="F275" t="s">
-        <v>16</v>
-      </c>
-      <c r="G275" t="s">
-        <v>6</v>
-      </c>
-      <c r="I275" t="s">
-        <v>8</v>
-      </c>
-      <c r="L275" t="s">
+      <c r="M275" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>14</v>
+      </c>
+      <c r="L276" t="s">
         <v>422</v>
       </c>
-      <c r="M275" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>14</v>
-      </c>
-      <c r="I276" t="s">
-        <v>8</v>
-      </c>
-      <c r="L276" t="s">
+      <c r="M276" t="s">
         <v>423</v>
       </c>
-      <c r="M276" t="s">
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="L277" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" t="s">
-        <v>3</v>
-      </c>
-      <c r="I277" t="s">
-        <v>8</v>
-      </c>
-      <c r="L277" t="s">
+      <c r="M277" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>14</v>
+      </c>
+      <c r="L278" t="s">
         <v>425</v>
-      </c>
-      <c r="M277" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>14</v>
-      </c>
-      <c r="I278" t="s">
-        <v>8</v>
-      </c>
-      <c r="L278" t="s">
-        <v>426</v>
       </c>
       <c r="M278" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7499,34 +6284,25 @@
       <c r="C279" t="s">
         <v>15</v>
       </c>
-      <c r="D279" t="s">
-        <v>3</v>
-      </c>
-      <c r="I279" t="s">
-        <v>8</v>
-      </c>
       <c r="L279" t="s">
+        <v>426</v>
+      </c>
+      <c r="M279" t="s">
         <v>427</v>
       </c>
-      <c r="M279" t="s">
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>14</v>
+      </c>
+      <c r="L280" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>14</v>
-      </c>
-      <c r="I280" t="s">
-        <v>8</v>
-      </c>
-      <c r="L280" t="s">
-        <v>429</v>
-      </c>
       <c r="M280" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7535,121 +6311,91 @@
       </c>
       <c r="C281" t="s">
         <v>15</v>
-      </c>
-      <c r="D281" t="s">
-        <v>3</v>
       </c>
       <c r="H281" t="s">
         <v>60</v>
       </c>
-      <c r="I281" t="s">
-        <v>8</v>
-      </c>
       <c r="L281" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M281" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14</v>
       </c>
-      <c r="I282" t="s">
-        <v>8</v>
-      </c>
       <c r="L282" t="s">
+        <v>430</v>
+      </c>
+      <c r="M282" t="s">
         <v>431</v>
       </c>
-      <c r="M282" t="s">
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" t="s">
+        <v>15</v>
+      </c>
+      <c r="L283" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" t="s">
-        <v>15</v>
-      </c>
-      <c r="D283" t="s">
-        <v>3</v>
-      </c>
-      <c r="I283" t="s">
-        <v>8</v>
-      </c>
-      <c r="L283" t="s">
+      <c r="M283" t="s">
         <v>433</v>
       </c>
-      <c r="M283" t="s">
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>16</v>
+      </c>
+      <c r="F284" t="s">
+        <v>16</v>
+      </c>
+      <c r="L284" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="E284" t="s">
-        <v>16</v>
-      </c>
-      <c r="F284" t="s">
-        <v>16</v>
-      </c>
-      <c r="G284" t="s">
-        <v>6</v>
-      </c>
-      <c r="I284" t="s">
-        <v>8</v>
-      </c>
-      <c r="L284" t="s">
+      <c r="M284" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>14</v>
+      </c>
+      <c r="L285" t="s">
         <v>435</v>
       </c>
-      <c r="M284" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>14</v>
-      </c>
-      <c r="I285" t="s">
-        <v>8</v>
-      </c>
-      <c r="L285" t="s">
+      <c r="M285" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>16</v>
+      </c>
+      <c r="F286" t="s">
+        <v>16</v>
+      </c>
+      <c r="L286" t="s">
         <v>436</v>
       </c>
-      <c r="M285" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="E286" t="s">
-        <v>16</v>
-      </c>
-      <c r="F286" t="s">
-        <v>16</v>
-      </c>
-      <c r="G286" t="s">
-        <v>6</v>
-      </c>
-      <c r="I286" t="s">
-        <v>8</v>
-      </c>
-      <c r="L286" t="s">
-        <v>437</v>
-      </c>
       <c r="M286" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>47</v>
       </c>
@@ -7657,49 +6403,46 @@
         <v>143</v>
       </c>
       <c r="L287" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M287" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>14</v>
       </c>
-      <c r="I288" t="s">
-        <v>8</v>
-      </c>
       <c r="L288" t="s">
+        <v>438</v>
+      </c>
+      <c r="M288" t="s">
         <v>439</v>
       </c>
-      <c r="M288" t="s">
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="L289" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>14</v>
-      </c>
-      <c r="L289" t="s">
+      <c r="M289" t="s">
         <v>441</v>
       </c>
-      <c r="M289" t="s">
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>14</v>
+      </c>
+      <c r="L290" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>14</v>
-      </c>
-      <c r="L290" t="s">
-        <v>443</v>
       </c>
       <c r="M290" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7709,20 +6452,14 @@
       <c r="F291" t="s">
         <v>16</v>
       </c>
-      <c r="G291" t="s">
-        <v>6</v>
-      </c>
-      <c r="I291" t="s">
-        <v>8</v>
-      </c>
       <c r="L291" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M291" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -7731,38 +6468,29 @@
       </c>
       <c r="C292" t="s">
         <v>15</v>
-      </c>
-      <c r="D292" t="s">
-        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>7</v>
       </c>
-      <c r="I292" t="s">
-        <v>8</v>
-      </c>
       <c r="L292" t="s">
+        <v>444</v>
+      </c>
+      <c r="M292" t="s">
         <v>445</v>
       </c>
-      <c r="M292" t="s">
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>14</v>
+      </c>
+      <c r="L293" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>14</v>
-      </c>
-      <c r="I293" t="s">
-        <v>8</v>
-      </c>
-      <c r="L293" t="s">
-        <v>447</v>
       </c>
       <c r="M293" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -7772,226 +6500,169 @@
       <c r="C294" t="s">
         <v>15</v>
       </c>
-      <c r="D294" t="s">
-        <v>3</v>
-      </c>
       <c r="E294" t="s">
         <v>16</v>
       </c>
       <c r="F294" t="s">
         <v>16</v>
       </c>
-      <c r="G294" t="s">
-        <v>6</v>
-      </c>
-      <c r="I294" t="s">
-        <v>8</v>
-      </c>
       <c r="L294" t="s">
+        <v>447</v>
+      </c>
+      <c r="M294" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>14</v>
+      </c>
+      <c r="L295" t="s">
         <v>448</v>
       </c>
-      <c r="M294" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>14</v>
-      </c>
-      <c r="I295" t="s">
-        <v>8</v>
-      </c>
-      <c r="L295" t="s">
-        <v>449</v>
-      </c>
       <c r="M295" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>7</v>
       </c>
-      <c r="I296" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K296" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L296" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="M296" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="M296" s="1" t="s">
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297" t="s">
+        <v>16</v>
+      </c>
+      <c r="L297" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>1</v>
-      </c>
-      <c r="B297" t="s">
-        <v>15</v>
-      </c>
-      <c r="C297" t="s">
-        <v>15</v>
-      </c>
-      <c r="D297" t="s">
-        <v>3</v>
-      </c>
-      <c r="E297" t="s">
-        <v>16</v>
-      </c>
-      <c r="F297" t="s">
-        <v>16</v>
-      </c>
-      <c r="G297" t="s">
-        <v>6</v>
-      </c>
-      <c r="I297" t="s">
-        <v>8</v>
-      </c>
-      <c r="L297" t="s">
+      <c r="M297" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>16</v>
+      </c>
+      <c r="F298" t="s">
+        <v>16</v>
+      </c>
+      <c r="L298" t="s">
         <v>452</v>
       </c>
-      <c r="M297" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="E298" t="s">
-        <v>16</v>
-      </c>
-      <c r="F298" t="s">
-        <v>16</v>
-      </c>
-      <c r="G298" t="s">
-        <v>6</v>
-      </c>
-      <c r="I298" t="s">
-        <v>8</v>
-      </c>
-      <c r="L298" t="s">
+      <c r="M298" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>14</v>
+      </c>
+      <c r="L299" t="s">
         <v>453</v>
       </c>
-      <c r="M298" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>14</v>
-      </c>
-      <c r="I299" t="s">
-        <v>8</v>
-      </c>
-      <c r="L299" t="s">
+      <c r="M299" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F300" t="s">
+        <v>16</v>
+      </c>
+      <c r="L300" t="s">
         <v>454</v>
       </c>
-      <c r="M299" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>1</v>
-      </c>
-      <c r="E300" t="s">
-        <v>16</v>
-      </c>
-      <c r="F300" t="s">
-        <v>16</v>
-      </c>
-      <c r="G300" t="s">
-        <v>6</v>
-      </c>
-      <c r="I300" t="s">
-        <v>8</v>
-      </c>
-      <c r="L300" t="s">
+      <c r="M300" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>14</v>
+      </c>
+      <c r="L301" t="s">
         <v>455</v>
       </c>
-      <c r="M300" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>14</v>
-      </c>
-      <c r="I301" t="s">
-        <v>8</v>
-      </c>
-      <c r="L301" t="s">
+      <c r="M301" t="s">
         <v>456</v>
       </c>
-      <c r="M301" t="s">
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>14</v>
+      </c>
+      <c r="L302" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>14</v>
-      </c>
-      <c r="I302" t="s">
-        <v>8</v>
-      </c>
-      <c r="L302" t="s">
+      <c r="M302" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" t="s">
+        <v>16</v>
+      </c>
+      <c r="F303" t="s">
+        <v>16</v>
+      </c>
+      <c r="L303" t="s">
         <v>458</v>
       </c>
-      <c r="M302" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>1</v>
-      </c>
-      <c r="B303" t="s">
-        <v>15</v>
-      </c>
-      <c r="C303" t="s">
-        <v>15</v>
-      </c>
-      <c r="D303" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" t="s">
-        <v>16</v>
-      </c>
-      <c r="F303" t="s">
-        <v>16</v>
-      </c>
-      <c r="G303" t="s">
-        <v>6</v>
-      </c>
-      <c r="I303" t="s">
-        <v>8</v>
-      </c>
-      <c r="L303" t="s">
+      <c r="M303" t="s">
         <v>459</v>
       </c>
-      <c r="M303" t="s">
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="L304" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>14</v>
-      </c>
-      <c r="I304" t="s">
-        <v>8</v>
-      </c>
-      <c r="L304" t="s">
-        <v>461</v>
       </c>
       <c r="M304" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8001,175 +6672,130 @@
       <c r="C305" t="s">
         <v>15</v>
       </c>
-      <c r="D305" t="s">
-        <v>3</v>
-      </c>
       <c r="E305" t="s">
         <v>16</v>
       </c>
       <c r="F305" t="s">
         <v>16</v>
       </c>
-      <c r="G305" t="s">
-        <v>6</v>
-      </c>
-      <c r="I305" t="s">
-        <v>8</v>
-      </c>
       <c r="L305" t="s">
+        <v>461</v>
+      </c>
+      <c r="M305" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" t="s">
+        <v>16</v>
+      </c>
+      <c r="F306" t="s">
+        <v>16</v>
+      </c>
+      <c r="L306" t="s">
         <v>462</v>
-      </c>
-      <c r="M305" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>1</v>
-      </c>
-      <c r="B306" t="s">
-        <v>15</v>
-      </c>
-      <c r="C306" t="s">
-        <v>15</v>
-      </c>
-      <c r="D306" t="s">
-        <v>3</v>
-      </c>
-      <c r="E306" t="s">
-        <v>16</v>
-      </c>
-      <c r="F306" t="s">
-        <v>16</v>
-      </c>
-      <c r="G306" t="s">
-        <v>6</v>
-      </c>
-      <c r="I306" t="s">
-        <v>8</v>
-      </c>
-      <c r="L306" t="s">
-        <v>463</v>
       </c>
       <c r="M306" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>14</v>
       </c>
-      <c r="I307" t="s">
-        <v>8</v>
-      </c>
       <c r="L307" t="s">
+        <v>463</v>
+      </c>
+      <c r="M307" t="s">
         <v>464</v>
       </c>
-      <c r="M307" t="s">
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>14</v>
+      </c>
+      <c r="L308" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>14</v>
-      </c>
-      <c r="I308" t="s">
-        <v>8</v>
-      </c>
-      <c r="L308" t="s">
+      <c r="M308" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" t="s">
+        <v>16</v>
+      </c>
+      <c r="F309" t="s">
+        <v>16</v>
+      </c>
+      <c r="L309" t="s">
         <v>466</v>
-      </c>
-      <c r="M308" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>1</v>
-      </c>
-      <c r="B309" t="s">
-        <v>15</v>
-      </c>
-      <c r="C309" t="s">
-        <v>15</v>
-      </c>
-      <c r="D309" t="s">
-        <v>3</v>
-      </c>
-      <c r="E309" t="s">
-        <v>16</v>
-      </c>
-      <c r="F309" t="s">
-        <v>16</v>
-      </c>
-      <c r="G309" t="s">
-        <v>6</v>
-      </c>
-      <c r="I309" t="s">
-        <v>8</v>
-      </c>
-      <c r="L309" t="s">
-        <v>467</v>
       </c>
       <c r="M309" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
-      <c r="I310" t="s">
-        <v>8</v>
-      </c>
       <c r="L310" t="s">
+        <v>467</v>
+      </c>
+      <c r="M310" t="s">
         <v>468</v>
       </c>
-      <c r="M310" t="s">
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" t="s">
+        <v>16</v>
+      </c>
+      <c r="L311" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>1</v>
-      </c>
-      <c r="E311" t="s">
-        <v>16</v>
-      </c>
-      <c r="F311" t="s">
-        <v>16</v>
-      </c>
-      <c r="G311" t="s">
-        <v>6</v>
-      </c>
-      <c r="I311" t="s">
-        <v>8</v>
-      </c>
-      <c r="L311" t="s">
+      <c r="M311" t="s">
         <v>470</v>
       </c>
-      <c r="M311" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>7</v>
       </c>
-      <c r="I312" t="s">
-        <v>8</v>
-      </c>
       <c r="L312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M312" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -8179,476 +6805,353 @@
       <c r="F313" t="s">
         <v>16</v>
       </c>
-      <c r="G313" t="s">
-        <v>6</v>
-      </c>
-      <c r="I313" t="s">
-        <v>8</v>
-      </c>
       <c r="L313" t="s">
+        <v>472</v>
+      </c>
+      <c r="M313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>14</v>
+      </c>
+      <c r="L314" t="s">
         <v>473</v>
       </c>
-      <c r="M313" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>14</v>
-      </c>
-      <c r="I314" t="s">
-        <v>8</v>
-      </c>
-      <c r="L314" t="s">
+      <c r="M314" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" t="s">
+        <v>16</v>
+      </c>
+      <c r="F315" t="s">
+        <v>16</v>
+      </c>
+      <c r="L315" t="s">
         <v>474</v>
       </c>
-      <c r="M314" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>1</v>
-      </c>
-      <c r="B315" t="s">
-        <v>15</v>
-      </c>
-      <c r="C315" t="s">
-        <v>15</v>
-      </c>
-      <c r="D315" t="s">
-        <v>3</v>
-      </c>
-      <c r="E315" t="s">
-        <v>16</v>
-      </c>
-      <c r="F315" t="s">
-        <v>16</v>
-      </c>
-      <c r="G315" t="s">
-        <v>6</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
-      </c>
-      <c r="L315" t="s">
+      <c r="M315" t="s">
         <v>475</v>
       </c>
-      <c r="M315" t="s">
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>14</v>
+      </c>
+      <c r="L316" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>14</v>
-      </c>
-      <c r="I316" t="s">
-        <v>8</v>
-      </c>
-      <c r="L316" t="s">
+      <c r="M316" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" t="s">
+        <v>16</v>
+      </c>
+      <c r="L317" t="s">
         <v>477</v>
       </c>
-      <c r="M316" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" t="s">
-        <v>15</v>
-      </c>
-      <c r="C317" t="s">
-        <v>15</v>
-      </c>
-      <c r="D317" t="s">
-        <v>3</v>
-      </c>
-      <c r="E317" t="s">
-        <v>16</v>
-      </c>
-      <c r="F317" t="s">
-        <v>16</v>
-      </c>
-      <c r="G317" t="s">
-        <v>6</v>
-      </c>
-      <c r="I317" t="s">
-        <v>8</v>
-      </c>
-      <c r="L317" t="s">
+      <c r="M317" t="s">
         <v>478</v>
       </c>
-      <c r="M317" t="s">
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>14</v>
+      </c>
+      <c r="L318" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>14</v>
-      </c>
-      <c r="I318" t="s">
-        <v>8</v>
-      </c>
-      <c r="L318" t="s">
+      <c r="M318" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" t="s">
+        <v>16</v>
+      </c>
+      <c r="F319" t="s">
+        <v>16</v>
+      </c>
+      <c r="L319" t="s">
         <v>480</v>
       </c>
-      <c r="M318" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>1</v>
-      </c>
-      <c r="B319" t="s">
-        <v>15</v>
-      </c>
-      <c r="C319" t="s">
-        <v>15</v>
-      </c>
-      <c r="D319" t="s">
-        <v>3</v>
-      </c>
-      <c r="E319" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" t="s">
-        <v>16</v>
-      </c>
-      <c r="G319" t="s">
-        <v>6</v>
-      </c>
-      <c r="I319" t="s">
-        <v>8</v>
-      </c>
-      <c r="L319" t="s">
+      <c r="M319" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>14</v>
+      </c>
+      <c r="L320" t="s">
         <v>481</v>
       </c>
-      <c r="M319" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>14</v>
-      </c>
-      <c r="I320" t="s">
-        <v>8</v>
-      </c>
-      <c r="L320" t="s">
+      <c r="M320" t="s">
         <v>482</v>
       </c>
-      <c r="M320" t="s">
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" t="s">
+        <v>16</v>
+      </c>
+      <c r="F321" t="s">
+        <v>16</v>
+      </c>
+      <c r="L321" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>1</v>
-      </c>
-      <c r="B321" t="s">
-        <v>15</v>
-      </c>
-      <c r="C321" t="s">
-        <v>15</v>
-      </c>
-      <c r="D321" t="s">
-        <v>3</v>
-      </c>
-      <c r="E321" t="s">
-        <v>16</v>
-      </c>
-      <c r="F321" t="s">
-        <v>16</v>
-      </c>
-      <c r="G321" t="s">
-        <v>6</v>
-      </c>
-      <c r="I321" t="s">
-        <v>8</v>
-      </c>
-      <c r="L321" t="s">
+      <c r="M321" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>14</v>
+      </c>
+      <c r="L322" t="s">
         <v>484</v>
       </c>
-      <c r="M321" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>14</v>
-      </c>
-      <c r="I322" t="s">
-        <v>8</v>
-      </c>
-      <c r="L322" t="s">
+      <c r="M322" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>16</v>
+      </c>
+      <c r="F323" t="s">
+        <v>16</v>
+      </c>
+      <c r="L323" t="s">
         <v>485</v>
       </c>
-      <c r="M322" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="E323" t="s">
-        <v>16</v>
-      </c>
-      <c r="F323" t="s">
-        <v>16</v>
-      </c>
-      <c r="G323" t="s">
-        <v>6</v>
-      </c>
-      <c r="I323" t="s">
-        <v>8</v>
-      </c>
-      <c r="L323" t="s">
+      <c r="M323" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>14</v>
+      </c>
+      <c r="L324" t="s">
         <v>486</v>
       </c>
-      <c r="M323" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>14</v>
-      </c>
-      <c r="I324" t="s">
-        <v>8</v>
-      </c>
-      <c r="L324" t="s">
+      <c r="M324" t="s">
         <v>487</v>
       </c>
-      <c r="M324" t="s">
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>16</v>
+      </c>
+      <c r="F325" t="s">
+        <v>16</v>
+      </c>
+      <c r="L325" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>1</v>
-      </c>
-      <c r="E325" t="s">
-        <v>16</v>
-      </c>
-      <c r="F325" t="s">
-        <v>16</v>
-      </c>
-      <c r="G325" t="s">
-        <v>6</v>
-      </c>
-      <c r="I325" t="s">
-        <v>8</v>
-      </c>
-      <c r="L325" t="s">
+      <c r="M325" t="s">
         <v>489</v>
       </c>
-      <c r="M325" t="s">
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>14</v>
+      </c>
+      <c r="L326" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>14</v>
-      </c>
-      <c r="I326" t="s">
-        <v>8</v>
-      </c>
-      <c r="L326" t="s">
+      <c r="M326" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" t="s">
+        <v>16</v>
+      </c>
+      <c r="F327" t="s">
+        <v>16</v>
+      </c>
+      <c r="L327" t="s">
         <v>491</v>
       </c>
-      <c r="M326" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A327">
-        <v>1</v>
-      </c>
-      <c r="B327" t="s">
-        <v>15</v>
-      </c>
-      <c r="C327" t="s">
-        <v>15</v>
-      </c>
-      <c r="D327" t="s">
-        <v>3</v>
-      </c>
-      <c r="E327" t="s">
-        <v>16</v>
-      </c>
-      <c r="F327" t="s">
-        <v>16</v>
-      </c>
-      <c r="G327" t="s">
-        <v>6</v>
-      </c>
-      <c r="I327" t="s">
-        <v>8</v>
-      </c>
-      <c r="L327" t="s">
+      <c r="M327" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>14</v>
+      </c>
+      <c r="L328" t="s">
         <v>492</v>
       </c>
-      <c r="M327" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A328">
-        <v>14</v>
-      </c>
-      <c r="I328" t="s">
-        <v>8</v>
-      </c>
-      <c r="L328" t="s">
+      <c r="M328" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" t="s">
+        <v>16</v>
+      </c>
+      <c r="F329" t="s">
+        <v>16</v>
+      </c>
+      <c r="L329" t="s">
         <v>493</v>
       </c>
-      <c r="M328" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>1</v>
-      </c>
-      <c r="B329" t="s">
-        <v>15</v>
-      </c>
-      <c r="C329" t="s">
-        <v>15</v>
-      </c>
-      <c r="D329" t="s">
-        <v>3</v>
-      </c>
-      <c r="E329" t="s">
-        <v>16</v>
-      </c>
-      <c r="F329" t="s">
-        <v>16</v>
-      </c>
-      <c r="G329" t="s">
-        <v>6</v>
-      </c>
-      <c r="I329" t="s">
-        <v>8</v>
-      </c>
-      <c r="L329" t="s">
+      <c r="M329" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>14</v>
+      </c>
+      <c r="L330" t="s">
         <v>494</v>
       </c>
-      <c r="M329" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A330">
-        <v>14</v>
-      </c>
-      <c r="I330" t="s">
-        <v>8</v>
-      </c>
-      <c r="L330" t="s">
+      <c r="M330" t="s">
         <v>495</v>
       </c>
-      <c r="M330" t="s">
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" t="s">
+        <v>16</v>
+      </c>
+      <c r="F331" t="s">
+        <v>16</v>
+      </c>
+      <c r="L331" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331" t="s">
-        <v>15</v>
-      </c>
-      <c r="C331" t="s">
-        <v>15</v>
-      </c>
-      <c r="D331" t="s">
-        <v>3</v>
-      </c>
-      <c r="E331" t="s">
-        <v>16</v>
-      </c>
-      <c r="F331" t="s">
-        <v>16</v>
-      </c>
-      <c r="G331" t="s">
-        <v>6</v>
-      </c>
-      <c r="I331" t="s">
-        <v>8</v>
-      </c>
-      <c r="L331" t="s">
-        <v>497</v>
       </c>
       <c r="M331" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
-      <c r="I332" t="s">
-        <v>8</v>
-      </c>
       <c r="L332" t="s">
+        <v>497</v>
+      </c>
+      <c r="M332" t="s">
         <v>498</v>
       </c>
-      <c r="M332" t="s">
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>14</v>
+      </c>
+      <c r="L333" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>14</v>
-      </c>
-      <c r="I333" t="s">
-        <v>8</v>
-      </c>
-      <c r="L333" t="s">
+      <c r="M333" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>15</v>
+      </c>
+      <c r="C334" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" t="s">
+        <v>16</v>
+      </c>
+      <c r="F334" t="s">
+        <v>16</v>
+      </c>
+      <c r="L334" t="s">
         <v>500</v>
-      </c>
-      <c r="M333" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>1</v>
-      </c>
-      <c r="B334" t="s">
-        <v>15</v>
-      </c>
-      <c r="C334" t="s">
-        <v>15</v>
-      </c>
-      <c r="D334" t="s">
-        <v>3</v>
-      </c>
-      <c r="E334" t="s">
-        <v>16</v>
-      </c>
-      <c r="F334" t="s">
-        <v>16</v>
-      </c>
-      <c r="G334" t="s">
-        <v>6</v>
-      </c>
-      <c r="I334" t="s">
-        <v>8</v>
-      </c>
-      <c r="L334" t="s">
-        <v>501</v>
       </c>
       <c r="M334" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8658,114 +7161,87 @@
       <c r="C335" t="s">
         <v>15</v>
       </c>
-      <c r="D335" t="s">
-        <v>3</v>
-      </c>
       <c r="E335" t="s">
         <v>16</v>
       </c>
       <c r="F335" t="s">
         <v>16</v>
       </c>
-      <c r="G335" t="s">
-        <v>6</v>
-      </c>
-      <c r="I335" t="s">
-        <v>8</v>
-      </c>
       <c r="L335" t="s">
+        <v>501</v>
+      </c>
+      <c r="M335" t="s">
         <v>502</v>
       </c>
-      <c r="M335" t="s">
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>14</v>
+      </c>
+      <c r="L336" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>14</v>
-      </c>
-      <c r="I336" t="s">
-        <v>8</v>
-      </c>
-      <c r="L336" t="s">
+      <c r="M336" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" t="s">
+        <v>16</v>
+      </c>
+      <c r="F337" t="s">
+        <v>16</v>
+      </c>
+      <c r="L337" t="s">
         <v>504</v>
       </c>
-      <c r="M336" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>1</v>
-      </c>
-      <c r="B337" t="s">
-        <v>15</v>
-      </c>
-      <c r="C337" t="s">
-        <v>15</v>
-      </c>
-      <c r="D337" t="s">
-        <v>3</v>
-      </c>
-      <c r="E337" t="s">
-        <v>16</v>
-      </c>
-      <c r="F337" t="s">
-        <v>16</v>
-      </c>
-      <c r="G337" t="s">
-        <v>6</v>
-      </c>
-      <c r="I337" t="s">
-        <v>8</v>
-      </c>
-      <c r="L337" t="s">
+      <c r="M337" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>14</v>
+      </c>
+      <c r="L338" t="s">
         <v>505</v>
       </c>
-      <c r="M337" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>14</v>
-      </c>
-      <c r="I338" t="s">
-        <v>8</v>
-      </c>
-      <c r="L338" t="s">
+      <c r="M338" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>14</v>
+      </c>
+      <c r="L339" t="s">
         <v>506</v>
       </c>
-      <c r="M338" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>14</v>
-      </c>
-      <c r="L339" t="s">
+      <c r="M339" t="s">
         <v>507</v>
       </c>
-      <c r="M339" t="s">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>14</v>
+      </c>
+      <c r="L340" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>14</v>
-      </c>
-      <c r="I340" t="s">
-        <v>8</v>
-      </c>
-      <c r="L340" t="s">
-        <v>509</v>
       </c>
       <c r="M340" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -8775,43 +7251,31 @@
       <c r="C341" t="s">
         <v>15</v>
       </c>
-      <c r="D341" t="s">
-        <v>3</v>
-      </c>
       <c r="E341" t="s">
         <v>16</v>
       </c>
       <c r="F341" t="s">
         <v>16</v>
-      </c>
-      <c r="G341" t="s">
-        <v>6</v>
       </c>
       <c r="H341" t="s">
         <v>87</v>
       </c>
-      <c r="I341" t="s">
-        <v>8</v>
-      </c>
       <c r="L341" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M341" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>14</v>
       </c>
-      <c r="I342" t="s">
-        <v>8</v>
-      </c>
       <c r="L342" t="s">
+        <v>510</v>
+      </c>
+      <c r="M342" t="s">
         <v>511</v>
-      </c>
-      <c r="M342" t="s">
-        <v>512</v>
       </c>
     </row>
   </sheetData>
